--- a/results_colab/results_ordinary_TPE.xlsx
+++ b/results_colab/results_ordinary_TPE.xlsx
@@ -465,7 +465,7 @@
         <v>0.993849938499385</v>
       </c>
       <c r="B2" t="n">
-        <v>0.995079950799508</v>
+        <v>0.998769987699877</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -484,10 +484,10 @@
         <v>0.993849938499385</v>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>0.995079950799508</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.996309963099631</v>
       </c>
       <c r="D3" t="n">
         <v>0.988929889298893</v>
@@ -522,10 +522,10 @@
         <v>0.991389913899139</v>
       </c>
       <c r="B5" t="n">
-        <v>0.993849938499385</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.993849938499385</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0.993849938499385</v>
@@ -541,7 +541,7 @@
         <v>0.9963054187192119</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9963054187192119</v>
+        <v>0.9987684729064039</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -560,10 +560,10 @@
         <v>0.9926108374384236</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9901477832512315</v>
+        <v>0.9987684729064039</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9963054187192119</v>
+        <v>0.9975369458128078</v>
       </c>
       <c r="D7" t="n">
         <v>0.9852216748768473</v>
@@ -579,10 +579,10 @@
         <v>0.9913793103448276</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9926108374384236</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9975369458128078</v>
+        <v>0.9938423645320197</v>
       </c>
       <c r="D8" t="n">
         <v>0.9901477832512315</v>
@@ -598,7 +598,7 @@
         <v>0.9963054187192119</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9975369458128078</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0.9975369458128078</v>
@@ -617,10 +617,10 @@
         <v>0.9938423645320197</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9950738916256158</v>
+        <v>0.9963054187192119</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9975369458128078</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0.9852216748768473</v>
@@ -636,10 +636,10 @@
         <v>0.9938423645320197</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9926108374384236</v>
+        <v>0.9987684729064039</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9938423645320197</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0.9889162561576355</v>
@@ -652,16 +652,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5711206896551724</v>
+        <v>0.860048640282998</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5657327586206896</v>
+        <v>0.8642493919964626</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5700431034482759</v>
+        <v>0.862701746628344</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5711206896551724</v>
+        <v>0.859606455892107</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -671,16 +671,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.5700431034482759</v>
+        <v>0.8671235905372541</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5689655172413793</v>
+        <v>0.8691134202962636</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5689655172413793</v>
+        <v>0.8673446827326995</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5700431034482759</v>
+        <v>0.8655759451691355</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -690,16 +690,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.552801724137931</v>
+        <v>0.8639982308712959</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5538793103448276</v>
+        <v>0.8639982308712959</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5625</v>
+        <v>0.8659885006634233</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5571120689655172</v>
+        <v>0.8648827952233525</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -709,16 +709,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.5668103448275862</v>
+        <v>0.8701901813356921</v>
       </c>
       <c r="B15" t="n">
-        <v>0.572198275862069</v>
+        <v>0.8739495798319328</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5646551724137931</v>
+        <v>0.8735072976559045</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5657327586206896</v>
+        <v>0.8708536045997346</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -728,16 +728,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.5657327586206896</v>
+        <v>0.8586908447589562</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5678879310344828</v>
+        <v>0.8624502432551968</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5711206896551724</v>
+        <v>0.8644405130473242</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5571120689655172</v>
+        <v>0.8567005749668288</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -747,16 +747,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.572198275862069</v>
+        <v>0.854046881910659</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5743534482758621</v>
+        <v>0.8604599734630695</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5808189655172413</v>
+        <v>0.8620079610791685</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5786637931034483</v>
+        <v>0.8564794338788146</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -766,16 +766,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.5700431034482759</v>
+        <v>0.8693056169836355</v>
       </c>
       <c r="B18" t="n">
-        <v>0.572198275862069</v>
+        <v>0.8717381689517912</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5743534482758621</v>
+        <v>0.8726227333038479</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5700431034482759</v>
+        <v>0.8679787704555506</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -785,16 +785,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5765086206896551</v>
+        <v>0.8646616541353384</v>
       </c>
       <c r="B19" t="n">
-        <v>0.572198275862069</v>
+        <v>0.871517027863777</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5765086206896551</v>
+        <v>0.871517027863777</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5818965517241379</v>
+        <v>0.8657673595754091</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -804,16 +804,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5743534482758621</v>
+        <v>0.871295886775763</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5700431034482759</v>
+        <v>0.8759398496240601</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5689655172413793</v>
+        <v>0.8757187085360459</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5711206896551724</v>
+        <v>0.8704113224237063</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -823,16 +823,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5646551724137931</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5657327586206896</v>
+        <v>0.877045555064131</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5754310344827587</v>
+        <v>0.8754975674480319</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5689655172413793</v>
+        <v>0.871295886775763</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -845,10 +845,10 @@
         <v>0.8056737588652483</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8085106382978723</v>
+        <v>0.798581560283688</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8113475177304964</v>
+        <v>0.8042553191489362</v>
       </c>
       <c r="D22" t="n">
         <v>0.8042553191489362</v>
@@ -864,10 +864,10 @@
         <v>0.8056737588652483</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8056737588652483</v>
+        <v>0.8156028368794326</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8099290780141843</v>
+        <v>0.8070921985815603</v>
       </c>
       <c r="D23" t="n">
         <v>0.8042553191489362</v>
@@ -883,10 +883,10 @@
         <v>0.8056737588652483</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8028368794326242</v>
+        <v>0.7900709219858156</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7815602836879433</v>
+        <v>0.7843971631205674</v>
       </c>
       <c r="D24" t="n">
         <v>0.8</v>
@@ -902,7 +902,7 @@
         <v>0.7826704545454546</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7826704545454546</v>
+        <v>0.7769886363636364</v>
       </c>
       <c r="C25" t="n">
         <v>0.765625</v>
@@ -921,10 +921,10 @@
         <v>0.8011363636363636</v>
       </c>
       <c r="B26" t="n">
-        <v>0.796875</v>
+        <v>0.7784090909090909</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7883522727272727</v>
+        <v>0.7769886363636364</v>
       </c>
       <c r="D26" t="n">
         <v>0.7940340909090909</v>
@@ -940,10 +940,10 @@
         <v>0.8053977272727273</v>
       </c>
       <c r="B27" t="n">
-        <v>0.796875</v>
+        <v>0.7926136363636364</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7769886363636364</v>
+        <v>0.7897727272727273</v>
       </c>
       <c r="D27" t="n">
         <v>0.8011363636363636</v>
@@ -962,7 +962,7 @@
         <v>0.7982954545454546</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8011363636363636</v>
+        <v>0.8025568181818182</v>
       </c>
       <c r="D28" t="n">
         <v>0.8025568181818182</v>
@@ -978,10 +978,10 @@
         <v>0.8053977272727273</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8025568181818182</v>
+        <v>0.796875</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7997159090909091</v>
+        <v>0.796875</v>
       </c>
       <c r="D29" t="n">
         <v>0.8068181818181818</v>
@@ -997,10 +997,10 @@
         <v>0.7940340909090909</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8011363636363636</v>
+        <v>0.7883522727272727</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7897727272727273</v>
+        <v>0.7926136363636364</v>
       </c>
       <c r="D30" t="n">
         <v>0.7897727272727273</v>
@@ -1016,7 +1016,7 @@
         <v>0.8011363636363636</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7982954545454546</v>
+        <v>0.7883522727272727</v>
       </c>
       <c r="C31" t="n">
         <v>0.7897727272727273</v>
@@ -1032,16 +1032,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.99875</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>0.99875</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.99875</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.99875</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1057,10 +1057,10 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0.99875</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.99875</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9975000000000001</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.99875</v>
+        <v>1</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -1127,16 +1127,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9975000000000001</v>
+        <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>0.99875</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0.99875</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.99875</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1146,16 +1146,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.99875</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>0.99875</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0.99875</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.99875</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1165,16 +1165,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -1203,16 +1203,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C41" t="n">
-        <v>0.99875</v>
+        <v>0.997</v>
       </c>
       <c r="D41" t="n">
-        <v>0.99875</v>
+        <v>0.998</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
